--- a/srcript/reg_tab/Tables/mirror.xlsx
+++ b/srcript/reg_tab/Tables/mirror.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\projects\FWD-SW\trunk\FWD\sdk\sf_sdk\sdk\tools\srcript\reg_tab\Tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16875" windowHeight="9735" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10830" tabRatio="872" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="版本说明" sheetId="2" r:id="rId1"/>
@@ -15,12 +20,12 @@
     <sheet name="EGR_MIRROR_ENCAP_DATA_1_ERSP2_t" sheetId="3" r:id="rId6"/>
     <sheet name="IM_MTP_INDEX_t" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="174">
   <si>
     <t>Reserved</t>
   </si>
@@ -667,8 +672,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1493,6 +1498,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1520,41 +1540,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="18" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="19" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="20" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="21" builtinId="17" customBuiltin="1"/>
@@ -1569,15 +1574,15 @@
     <cellStyle name="解释性文本" xfId="29" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="30" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="31" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="33" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="34" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="35" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="36" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="38" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="39" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="40" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="32" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="33" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="34" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="37" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="41" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1848,52 +1853,52 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="41.75" customWidth="1"/>
     <col min="3" max="3" width="74.75" customWidth="1"/>
     <col min="4" max="4" width="71.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:4" ht="29.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="135" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:4" ht="135" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="25" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1907,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1921,97 +1926,97 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -2029,14 +2034,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
@@ -2048,7 +2053,7 @@
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="54">
+    <row r="1" spans="1:16" ht="54" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>134</v>
       </c>
@@ -2074,14 +2079,16 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="165">
+    <row r="2" spans="1:16" ht="165" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>8</v>
       </c>
       <c r="B2" s="18">
         <v>6</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -2090,7 +2097,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="32.25" customHeight="1">
+    <row r="3" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -2116,8 +2123,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
         <v>141</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -2142,8 +2149,8 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>140</v>
       </c>
@@ -2166,12 +2173,12 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="34"/>
       <c r="B6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="22" t="s">
         <v>152</v>
       </c>
       <c r="D6" s="6"/>
@@ -2188,17 +2195,17 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="67.5">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:16" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="35"/>
       <c r="B7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="22" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="23" t="s">
         <v>153</v>
       </c>
       <c r="G7" s="8"/>
@@ -2212,7 +2219,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5">
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -2230,7 +2237,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="16.5">
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -2248,7 +2255,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="16.5">
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -2266,7 +2273,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="16.5">
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -2284,7 +2291,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="16.5">
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -2302,7 +2309,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5">
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -2320,7 +2327,7 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="16.5">
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -2338,7 +2345,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="16.5">
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -2356,7 +2363,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="16.5">
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -2374,7 +2381,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="16.5">
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -2392,7 +2399,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="16.5">
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -2410,7 +2417,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="16.5">
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -2428,7 +2435,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="16.5">
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -2446,7 +2453,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="16.5">
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -2464,7 +2471,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="16.5">
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -2482,7 +2489,7 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="16.5">
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -2500,7 +2507,7 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="16.5">
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -2518,7 +2525,7 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="16.5">
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -2536,7 +2543,7 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="16.5">
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -2554,7 +2561,7 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="16.5">
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -2572,7 +2579,7 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="16.5">
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -2590,7 +2597,7 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="16.5">
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -2608,7 +2615,7 @@
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="16.5">
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
@@ -2626,7 +2633,7 @@
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="16.5">
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
@@ -2644,7 +2651,7 @@
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="16.5">
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
@@ -2662,7 +2669,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="16.5">
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -2680,7 +2687,7 @@
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="16.5">
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -2698,7 +2705,7 @@
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="16.5">
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -2716,7 +2723,7 @@
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="16.5">
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -2734,7 +2741,7 @@
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="16.5">
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -2752,7 +2759,7 @@
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="16.5">
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -2770,7 +2777,7 @@
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="16.5">
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
@@ -2788,7 +2795,7 @@
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="16.5">
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -2806,7 +2813,7 @@
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="16.5">
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -2824,7 +2831,7 @@
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="16.5">
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -2842,7 +2849,7 @@
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" ht="16.5">
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -2860,7 +2867,7 @@
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" ht="16.5">
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="7"/>
@@ -2878,7 +2885,7 @@
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" ht="16.5">
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="7"/>
@@ -2896,7 +2903,7 @@
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" ht="16.5">
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="7"/>
@@ -2914,7 +2921,7 @@
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="16.5">
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="7"/>
@@ -2932,7 +2939,7 @@
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" ht="16.5">
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="7"/>
@@ -2950,7 +2957,7 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="16.5">
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
@@ -2968,7 +2975,7 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="16.5">
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="7"/>
@@ -2986,7 +2993,7 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="16.5">
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="7"/>
@@ -3004,7 +3011,7 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="16.5">
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="7"/>
@@ -3022,7 +3029,7 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="16.5">
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="7"/>
@@ -3040,7 +3047,7 @@
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="16.5">
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="7"/>
@@ -3058,7 +3065,7 @@
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" ht="16.5">
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="7"/>
@@ -3076,7 +3083,7 @@
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" ht="16.5">
+    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="7"/>
@@ -3094,7 +3101,7 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="16.5">
+    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="7"/>
@@ -3112,7 +3119,7 @@
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:16" ht="16.5">
+    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="7"/>
@@ -3130,7 +3137,7 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16" ht="16.5">
+    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="7"/>
@@ -3148,7 +3155,7 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:16" ht="16.5">
+    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="7"/>
@@ -3166,7 +3173,7 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:16" ht="16.5">
+    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="7"/>
@@ -3184,7 +3191,7 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:16" ht="16.5">
+    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="7"/>
@@ -3202,7 +3209,7 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16" ht="16.5">
+    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="7"/>
@@ -3220,7 +3227,7 @@
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:16" ht="16.5">
+    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
@@ -3238,7 +3245,7 @@
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" ht="16.5">
+    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
@@ -3256,7 +3263,7 @@
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16" ht="16.5">
+    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="7"/>
@@ -3274,7 +3281,7 @@
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" ht="16.5">
+    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="7"/>
@@ -3292,7 +3299,7 @@
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" ht="16.5">
+    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="7"/>
@@ -3310,7 +3317,7 @@
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" ht="16.5">
+    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="7"/>
@@ -3328,7 +3335,7 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" ht="16.5">
+    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="7"/>
@@ -3346,7 +3353,7 @@
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" ht="16.5">
+    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="7"/>
@@ -3364,7 +3371,7 @@
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" ht="16.5">
+    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="7"/>
@@ -3382,7 +3389,7 @@
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16" ht="16.5">
+    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="7"/>
@@ -3400,7 +3407,7 @@
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16" ht="16.5">
+    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="7"/>
@@ -3418,7 +3425,7 @@
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16" ht="16.5">
+    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
@@ -3436,7 +3443,7 @@
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16" ht="16.5">
+    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="7"/>
@@ -3470,14 +3477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
@@ -3489,7 +3496,7 @@
     <col min="8" max="8" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>134</v>
       </c>
@@ -3515,14 +3522,16 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99">
+    <row r="2" spans="1:8" ht="99" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>8</v>
       </c>
       <c r="B2" s="18">
         <v>32</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -3531,7 +3540,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -3557,8 +3566,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="49.5">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:8" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="24" t="s">
         <v>164</v>
       </c>
       <c r="B4" s="16" t="s">
@@ -3575,7 +3584,7 @@
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="14"/>
@@ -3585,7 +3594,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="14"/>
@@ -3595,7 +3604,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="14"/>
@@ -3605,7 +3614,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="14"/>
@@ -3615,7 +3624,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -3625,7 +3634,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
@@ -3635,7 +3644,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
@@ -3645,7 +3654,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -3655,7 +3664,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -3665,7 +3674,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -3675,7 +3684,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -3685,7 +3694,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -3695,7 +3704,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -3705,7 +3714,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -3715,7 +3724,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -3725,7 +3734,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -3747,14 +3756,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
@@ -3766,7 +3775,7 @@
     <col min="8" max="8" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>134</v>
       </c>
@@ -3792,14 +3801,16 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99">
+    <row r="2" spans="1:8" ht="99" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>8</v>
       </c>
       <c r="B2" s="18">
         <v>336</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -3808,7 +3819,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -3834,8 +3845,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
         <v>163</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -3852,8 +3863,8 @@
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>143</v>
       </c>
@@ -3868,8 +3879,8 @@
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="34"/>
       <c r="B6" s="21" t="s">
         <v>144</v>
       </c>
@@ -3884,8 +3895,8 @@
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
       <c r="B7" s="21" t="s">
         <v>145</v>
       </c>
@@ -3900,12 +3911,12 @@
       <c r="G7" s="8"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
       <c r="B8" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="26" t="s">
         <v>162</v>
       </c>
       <c r="D8" s="12"/>
@@ -3916,9 +3927,9 @@
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="29"/>
-      <c r="B9" s="34" t="s">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
+      <c r="B9" s="25" t="s">
         <v>156</v>
       </c>
       <c r="C9" s="14" t="s">
@@ -3932,8 +3943,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="35"/>
       <c r="B10" s="21" t="s">
         <v>159</v>
       </c>
@@ -3948,7 +3959,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="14"/>
@@ -3958,7 +3969,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="14"/>
@@ -3968,7 +3979,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="14"/>
@@ -3978,7 +3989,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="14"/>
@@ -3988,7 +3999,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="14"/>
@@ -3998,7 +4009,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -4008,7 +4019,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -4018,7 +4029,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -4028,7 +4039,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -4038,7 +4049,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -4048,7 +4059,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -4058,7 +4069,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -4068,7 +4079,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -4078,7 +4089,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -4088,7 +4099,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -4098,7 +4109,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -4108,7 +4119,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -4133,14 +4144,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
@@ -4152,7 +4163,7 @@
     <col min="8" max="8" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>134</v>
       </c>
@@ -4178,14 +4189,16 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99">
+    <row r="2" spans="1:8" ht="99" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>8</v>
       </c>
       <c r="B2" s="18">
         <v>336</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4194,7 +4207,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -4220,8 +4233,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
         <v>173</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -4238,8 +4251,8 @@
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>143</v>
       </c>
@@ -4254,8 +4267,8 @@
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="34"/>
       <c r="B6" s="21" t="s">
         <v>144</v>
       </c>
@@ -4270,8 +4283,8 @@
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
       <c r="B7" s="21" t="s">
         <v>145</v>
       </c>
@@ -4286,8 +4299,8 @@
       <c r="G7" s="8"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
       <c r="B8" s="21" t="s">
         <v>165</v>
       </c>
@@ -4302,8 +4315,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="35"/>
       <c r="B9" s="16" t="s">
         <v>36</v>
       </c>
@@ -4318,7 +4331,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
@@ -4334,7 +4347,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="27">
+    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="14"/>
@@ -4350,7 +4363,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="14"/>
@@ -4360,7 +4373,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="14"/>
@@ -4370,7 +4383,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="14"/>
@@ -4380,7 +4393,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="14"/>
@@ -4390,7 +4403,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -4400,7 +4413,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -4410,7 +4423,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -4420,7 +4433,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -4430,7 +4443,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -4440,7 +4453,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -4450,7 +4463,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -4460,7 +4473,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -4470,7 +4483,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -4480,7 +4493,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -4490,7 +4503,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -4500,7 +4513,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -4525,14 +4538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="36.75" customWidth="1"/>
@@ -4544,7 +4557,7 @@
     <col min="8" max="8" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>134</v>
       </c>
@@ -4570,14 +4583,16 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="99">
+    <row r="2" spans="1:8" ht="99" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>8</v>
       </c>
       <c r="B2" s="18">
         <v>432</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="18" t="s">
+        <v>150</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="E2" s="18"/>
       <c r="F2" s="18"/>
@@ -4586,7 +4601,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -4612,8 +4627,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27">
-      <c r="A4" s="21"/>
+    <row r="4" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
+        <v>172</v>
+      </c>
       <c r="B4" s="21" t="s">
         <v>166</v>
       </c>
@@ -4622,32 +4639,30 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="23" t="s">
         <v>168</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="16.5">
-      <c r="A5" s="21"/>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="34"/>
       <c r="B5" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="26" t="s">
         <v>170</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="23" t="s">
         <v>171</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="16.5">
-      <c r="A6" s="28" t="s">
-        <v>172</v>
-      </c>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="34"/>
       <c r="B6" s="21" t="s">
         <v>142</v>
       </c>
@@ -4662,8 +4677,8 @@
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
       <c r="B7" s="21" t="s">
         <v>143</v>
       </c>
@@ -4678,8 +4693,8 @@
       <c r="G7" s="8"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="16.5">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
       <c r="B8" s="21" t="s">
         <v>144</v>
       </c>
@@ -4694,8 +4709,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
       <c r="B9" s="21" t="s">
         <v>145</v>
       </c>
@@ -4710,8 +4725,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
       <c r="B10" s="21" t="s">
         <v>146</v>
       </c>
@@ -4726,8 +4741,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="35"/>
       <c r="B11" s="16" t="s">
         <v>36</v>
       </c>
@@ -4742,7 +4757,7 @@
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
@@ -4758,7 +4773,7 @@
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="27">
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="14"/>
@@ -4774,7 +4789,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="14"/>
@@ -4784,7 +4799,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="14"/>
@@ -4794,7 +4809,7 @@
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="14"/>
@@ -4804,7 +4819,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="14"/>
@@ -4814,7 +4829,7 @@
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -4824,7 +4839,7 @@
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -4834,7 +4849,7 @@
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="16.5">
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -4844,7 +4859,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -4854,7 +4869,7 @@
       <c r="G21" s="8"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -4864,7 +4879,7 @@
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
@@ -4874,7 +4889,7 @@
       <c r="G23" s="8"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="16.5">
+    <row r="24" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
@@ -4884,7 +4899,7 @@
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -4894,7 +4909,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -4904,7 +4919,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -4914,7 +4929,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="16.5">
+    <row r="28" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -4924,7 +4939,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
@@ -4936,7 +4951,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A4:A11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -4949,14 +4964,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="35.25" customWidth="1"/>
@@ -4968,7 +4983,7 @@
     <col min="8" max="8" width="18.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36">
+    <row r="1" spans="1:8" ht="36" x14ac:dyDescent="0.15">
       <c r="A1" s="17" t="s">
         <v>134</v>
       </c>
@@ -4994,7 +5009,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="198">
+    <row r="2" spans="1:8" ht="198" x14ac:dyDescent="0.15">
       <c r="A2" s="18">
         <v>4</v>
       </c>
@@ -5012,7 +5027,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
@@ -5038,8 +5053,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="256.5">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:8" ht="256.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="33" t="s">
         <v>149</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -5056,8 +5071,8 @@
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="40.5">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="34"/>
       <c r="B5" s="14" t="s">
         <v>40</v>
       </c>
@@ -5072,8 +5087,8 @@
       <c r="G5" s="8"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="40.5">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="34"/>
       <c r="B6" s="14" t="s">
         <v>41</v>
       </c>
@@ -5088,8 +5103,8 @@
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="16.5">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="34"/>
       <c r="B7" s="14" t="s">
         <v>42</v>
       </c>
@@ -5104,8 +5119,8 @@
       <c r="G7" s="8"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="40.5">
-      <c r="A8" s="29"/>
+    <row r="8" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="34"/>
       <c r="B8" s="14" t="s">
         <v>43</v>
       </c>
@@ -5120,8 +5135,8 @@
       <c r="G8" s="8"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
-      <c r="A9" s="29"/>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="34"/>
       <c r="B9" s="14" t="s">
         <v>44</v>
       </c>
@@ -5136,8 +5151,8 @@
       <c r="G9" s="8"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="29"/>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="34"/>
       <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
@@ -5152,8 +5167,8 @@
       <c r="G10" s="8"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="34"/>
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
@@ -5168,8 +5183,8 @@
       <c r="G11" s="8"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="40.5">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="34"/>
       <c r="B12" s="14" t="s">
         <v>47</v>
       </c>
@@ -5184,8 +5199,8 @@
       <c r="G12" s="8"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="34"/>
       <c r="B13" s="14" t="s">
         <v>48</v>
       </c>
@@ -5200,8 +5215,8 @@
       <c r="G13" s="8"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="29"/>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="34"/>
       <c r="B14" s="14" t="s">
         <v>49</v>
       </c>
@@ -5216,8 +5231,8 @@
       <c r="G14" s="8"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="16.5">
-      <c r="A15" s="29"/>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
       <c r="B15" s="14" t="s">
         <v>50</v>
       </c>
@@ -5232,8 +5247,8 @@
       <c r="G15" s="8"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="40.5">
-      <c r="A16" s="29"/>
+    <row r="16" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="34"/>
       <c r="B16" s="14" t="s">
         <v>51</v>
       </c>
@@ -5248,8 +5263,8 @@
       <c r="G16" s="8"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="16.5">
-      <c r="A17" s="29"/>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="34"/>
       <c r="B17" s="14" t="s">
         <v>52</v>
       </c>
@@ -5264,8 +5279,8 @@
       <c r="G17" s="8"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="16.5">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="34"/>
       <c r="B18" s="14" t="s">
         <v>53</v>
       </c>
@@ -5280,8 +5295,8 @@
       <c r="G18" s="8"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="16.5">
-      <c r="A19" s="29"/>
+    <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="34"/>
       <c r="B19" s="14" t="s">
         <v>54</v>
       </c>
@@ -5296,8 +5311,8 @@
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="40.5">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="34"/>
       <c r="B20" s="14" t="s">
         <v>55</v>
       </c>
@@ -5312,8 +5327,8 @@
       <c r="G20" s="8"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="16.5">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="34"/>
       <c r="B21" s="14" t="s">
         <v>56</v>
       </c>
@@ -5328,8 +5343,8 @@
       <c r="G21" s="8"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="16.5">
-      <c r="A22" s="29"/>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="34"/>
       <c r="B22" s="14" t="s">
         <v>57</v>
       </c>
@@ -5344,8 +5359,8 @@
       <c r="G22" s="8"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="16.5">
-      <c r="A23" s="29"/>
+    <row r="23" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="34"/>
       <c r="B23" s="14" t="s">
         <v>58</v>
       </c>
@@ -5360,8 +5375,8 @@
       <c r="G23" s="8"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="40.5">
-      <c r="A24" s="29"/>
+    <row r="24" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="34"/>
       <c r="B24" s="14" t="s">
         <v>59</v>
       </c>
@@ -5376,8 +5391,8 @@
       <c r="G24" s="8"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="16.5">
-      <c r="A25" s="29"/>
+    <row r="25" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="34"/>
       <c r="B25" s="14" t="s">
         <v>60</v>
       </c>
@@ -5392,8 +5407,8 @@
       <c r="G25" s="8"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="16.5">
-      <c r="A26" s="29"/>
+    <row r="26" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="34"/>
       <c r="B26" s="14" t="s">
         <v>61</v>
       </c>
@@ -5408,8 +5423,8 @@
       <c r="G26" s="8"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="16.5">
-      <c r="A27" s="29"/>
+    <row r="27" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="34"/>
       <c r="B27" s="14" t="s">
         <v>62</v>
       </c>
@@ -5424,8 +5439,8 @@
       <c r="G27" s="8"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="40.5">
-      <c r="A28" s="29"/>
+    <row r="28" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="34"/>
       <c r="B28" s="14" t="s">
         <v>63</v>
       </c>
@@ -5440,8 +5455,8 @@
       <c r="G28" s="8"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="16.5">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:8" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="34"/>
       <c r="B29" s="14" t="s">
         <v>64</v>
       </c>
@@ -5456,8 +5471,8 @@
       <c r="G29" s="8"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="29"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="34"/>
       <c r="B30" s="14" t="s">
         <v>65</v>
       </c>
@@ -5472,8 +5487,8 @@
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="29"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="34"/>
       <c r="B31" s="14" t="s">
         <v>66</v>
       </c>
@@ -5488,8 +5503,8 @@
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" ht="40.5">
-      <c r="A32" s="29"/>
+    <row r="32" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="34"/>
       <c r="B32" s="14" t="s">
         <v>67</v>
       </c>
@@ -5504,8 +5519,8 @@
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="29"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="34"/>
       <c r="B33" s="14" t="s">
         <v>68</v>
       </c>
@@ -5520,8 +5535,8 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="29"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="34"/>
       <c r="B34" s="14" t="s">
         <v>69</v>
       </c>
@@ -5536,8 +5551,8 @@
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="29"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="34"/>
       <c r="B35" s="14" t="s">
         <v>123</v>
       </c>
@@ -5552,8 +5567,8 @@
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="1:8" ht="40.5">
-      <c r="A36" s="29"/>
+    <row r="36" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="34"/>
       <c r="B36" s="14" t="s">
         <v>124</v>
       </c>
@@ -5568,8 +5583,8 @@
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="29"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="34"/>
       <c r="B37" s="14" t="s">
         <v>125</v>
       </c>
@@ -5584,8 +5599,8 @@
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="1:8" ht="40.5">
-      <c r="A38" s="30"/>
+    <row r="38" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="35"/>
       <c r="B38" s="14" t="s">
         <v>126</v>
       </c>
